--- a/samples/excel12/ifs-funcs.xlsx
+++ b/samples/excel12/ifs-funcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="2" windowWidth="14400" windowHeight="6490"/>
+    <workbookView activeTab="0" windowWidth="14400" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -281,8 +281,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -309,11 +309,11 @@
       </c>
       <c r="B2">
         <f>Types!B1</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <f>Types!B2</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
@@ -322,11 +322,11 @@
       </c>
       <c r="B3">
         <f>Compound!B1</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>Compound!B2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15"/>
@@ -348,7 +348,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="B1">
         <f t="array" ref="B1">SUM(0+D$15:D$9984)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -375,7 +375,7 @@
       </c>
       <c r="B2" s="3">
         <f t="array" ref="B2">SUM(0+ISLOGICAL(D$15:D$10010))-B1</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -492,14 +492,14 @@
       </c>
       <c r="B15">
         <f>COUNTIF($C$5:$C$11,"&gt;=0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="b">
         <f>IFERROR(ERROR.TYPE(B15)=ERROR.TYPE(C15),IFERROR(B15=C15,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -513,16 +513,16 @@
           <t>COUNTIFS</t>
         </is>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>COUNTIFS($C$5:$C$11,"&gt;=0")</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="b">
         <f>IFERROR(ERROR.TYPE(B16)=ERROR.TYPE(C16),IFERROR(B16=C16,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -534,9 +534,9 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="e">
         <f>AVERAGEIF($B$5:$B$11,"&gt;=2",$C$5:$C$11)</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C18" t="e">
         <f>1/0</f>
@@ -544,7 +544,7 @@
       </c>
       <c r="D18" t="b">
         <f>IFERROR(ERROR.TYPE(B18)=ERROR.TYPE(C18),IFERROR(B18=C18,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -556,9 +556,9 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="e">
         <f>SUMIF($B$5:$B$11,"&gt;=2",$C$5:$C$11)</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C19" t="e">
         <f>1/0</f>
@@ -566,7 +566,7 @@
       </c>
       <c r="D19" t="b">
         <f>IFERROR(ERROR.TYPE(B19)=ERROR.TYPE(C19),IFERROR(B19=C19,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -575,7 +575,7 @@
       </c>
       <c r="B20" t="e">
         <f>AVERAGEIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C20" t="e">
         <f>1/0</f>
@@ -583,7 +583,7 @@
       </c>
       <c r="D20" t="b">
         <f>IFERROR(ERROR.TYPE(B20)=ERROR.TYPE(C20),IFERROR(B20=C20,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -592,7 +592,7 @@
       </c>
       <c r="B21" t="e">
         <f>MINIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C21" t="e">
         <f>1/0</f>
@@ -600,7 +600,7 @@
       </c>
       <c r="D21" t="b">
         <f>IFERROR(ERROR.TYPE(B21)=ERROR.TYPE(C21),IFERROR(B21=C21,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -609,7 +609,7 @@
       </c>
       <c r="B22" t="e">
         <f>MAXIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C22" t="e">
         <f>1/0</f>
@@ -617,7 +617,7 @@
       </c>
       <c r="D22" t="b">
         <f>IFERROR(ERROR.TYPE(B22)=ERROR.TYPE(C22),IFERROR(B22=C22,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -626,7 +626,7 @@
       </c>
       <c r="B23" t="e">
         <f>SUMIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C23" t="e">
         <f>1/0</f>
@@ -634,7 +634,7 @@
       </c>
       <c r="D23" t="b">
         <f>IFERROR(ERROR.TYPE(B23)=ERROR.TYPE(C23),IFERROR(B23=C23,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -678,64 +678,64 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27">
         <f>AVERAGEIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
-        <v>#NAME?</v>
+        <v>1.5</v>
       </c>
       <c r="C27">
         <v>1.5</v>
       </c>
       <c r="D27" t="b">
         <f>IFERROR(ERROR.TYPE(B27)=ERROR.TYPE(C27),IFERROR(B27=C27,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28">
         <f>MINIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
-        <v>#NAME?</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="b">
         <f>IFERROR(ERROR.TYPE(B28)=ERROR.TYPE(C28),IFERROR(B28=C28,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="e">
+      <c r="B29">
         <f>MAXIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
-        <v>#NAME?</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="b">
         <f>IFERROR(ERROR.TYPE(B29)=ERROR.TYPE(C29),IFERROR(B29=C29,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30">
         <f>SUMIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
-        <v>#NAME?</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="b">
         <f>IFERROR(ERROR.TYPE(B30)=ERROR.TYPE(C30),IFERROR(B30=C30,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -755,9 +755,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +775,7 @@
       </c>
       <c r="B1">
         <f t="array" ref="B1">SUM(0+E$20:E$9989)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -784,7 +784,7 @@
       </c>
       <c r="B2" s="3">
         <f t="array" ref="B2">SUM(0+ISLOGICAL(E$20:E$9989))-B1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -937,16 +937,16 @@
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9" t="e">
+      <c r="C20" s="9">
         <f>SUMIFS($C$5:$C$16,$A$5:$A$16,A21,$A$5:$A$16,B21)</f>
-        <v>#NAME?</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9">
         <v>56</v>
       </c>
       <c r="E20" s="9" t="b">
         <f>IFERROR(ERROR.TYPE(C20)=ERROR.TYPE(D20),IFERROR(C20=D20,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9" t="e">
+      <c r="C23" s="9">
         <f>SUMIFS($C$5:$C$16,$A$5:$A$16,A24,$B$5:$B$16,B24)</f>
-        <v>#NAME?</v>
+        <v>192</v>
       </c>
       <c r="D23" s="9">
         <v>192</v>
       </c>
       <c r="E23" s="9" t="b">
         <f>IFERROR(ERROR.TYPE(C23)=ERROR.TYPE(D23),IFERROR(C23=D23,FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>

--- a/samples/excel12/ifs-funcs.xlsx
+++ b/samples/excel12/ifs-funcs.xlsx
@@ -4,12 +4,13 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="14400" windowHeight="6750"/>
+    <workbookView activeTab="0" windowWidth="11720" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Types" sheetId="2" r:id="rId2"/>
-    <sheet name="Compound" sheetId="3" r:id="rId3"/>
+    <sheet name="Selector" sheetId="3" r:id="rId3"/>
+    <sheet name="Compound" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="string">#NAME?</definedName>
@@ -18,19 +19,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Types"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Compound"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Selector"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Compound"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26" count="26">
   <si>
     <t>Types</t>
   </si>
   <si>
+    <t>Selector</t>
+  </si>
+  <si>
     <t>Compound</t>
   </si>
   <si>
@@ -40,12 +46,27 @@
     <t>Fail:</t>
   </si>
   <si>
+    <t>Unimplemented:</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Ok?</t>
+  </si>
+  <si>
     <t>AVERAGEIF</t>
   </si>
   <si>
@@ -62,6 +83,24 @@
   </si>
   <si>
     <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Empty string</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Empty value</t>
   </si>
   <si>
     <t>Selector1</t>
@@ -121,12 +160,12 @@
   </fills>
   <borders count="7">
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -135,12 +174,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -149,12 +188,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -163,12 +202,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -177,12 +216,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -191,12 +230,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -205,12 +244,12 @@
       </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </end>
+      </right>
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
@@ -222,53 +261,69 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -279,7 +334,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -287,11 +342,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" style="0" width="15.999038461538463" customWidth="1"/>
-    <col min="4" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="16" customWidth="1"/>
+    <col min="2" max="4" style="0" width="16.7109375" customWidth="1"/>
+    <col min="5" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Pass</t>
@@ -302,8 +358,13 @@
           <t>Fail</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unimplemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -315,22 +376,45 @@
         <f>Types!B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+      <c r="D2">
+        <f>Types!B3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <f>Selector!B1</f>
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <f>Selector!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Selector!B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <f>Compound!B1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <f>Compound!B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15"/>
-    <row r="5" spans="1:3" ht="15"/>
+      <c r="D4">
+        <f>Compound!B4</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
@@ -348,216 +432,226 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" style="0" width="17.284675480769234" customWidth="1"/>
-    <col min="4" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="3" style="0" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" style="0" width="9.142307692307693"/>
+    <col min="5" max="5" style="0" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f t="array" ref="B1">SUM(0+D$16:D$9985)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="array" ref="B2">SUM(0+ISLOGICAL(D$16:D$10011))-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f t="array" ref="B3">SUM(0+E$16:E$9985)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="B1">
-        <f t="array" ref="B1">SUM(0+D$15:D$9984)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="4" t="s">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <f t="array" ref="B2">SUM(0+ISLOGICAL(D$15:D$10010))-B1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Selector</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Float</t>
-        </is>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>xyz</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="e">
+      <c r="C10" s="6" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Boolean</t>
-        </is>
-      </c>
-      <c r="B10" s="6">
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="C11" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Blank</t>
         </is>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" t="inlineStr">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Computed</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Unimplemented?</t>
+        </is>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="inlineStr">
         <is>
           <t>COUNTIF</t>
         </is>
       </c>
-      <c r="B15">
-        <f>COUNTIF($C$5:$C$11,"&gt;=0")</f>
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="b">
-        <f>IFERROR(ERROR.TYPE(B15)=ERROR.TYPE(C15),IFERROR(B15=C15,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>COUNTIF picks up only numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>COUNTIFS</t>
-        </is>
-      </c>
       <c r="B16">
-        <f>COUNTIFS($C$5:$C$11,"&gt;=0")</f>
+        <f>COUNTIF($C$6:$C$12,"&gt;=0")</f>
         <v>2</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="b">
-        <f>IFERROR(ERROR.TYPE(B16)=ERROR.TYPE(C16),IFERROR(B16=C16,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
+        <f>IF(E16,TRUE,IFERROR(ERROR.TYPE(B16)=ERROR.TYPE(C16),IFERROR(B16=C16,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <f>IFERROR(ERROR.TYPE(B16)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>COUNTIF picks up only numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>COUNTIFS</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>COUNTIFS($C$6:$C$12,"&gt;=0")</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="b">
+        <f>IF(E17,TRUE,IFERROR(ERROR.TYPE(B17)=ERROR.TYPE(C17),IFERROR(B17=C17,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <f>IFERROR(ERROR.TYPE(B17)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>COUNTIFS picks up only numbers</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="e">
-        <f>AVERAGEIF($B$5:$B$11,"&gt;=2",$C$5:$C$11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" t="e">
-        <f>1/0</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" t="b">
-        <f>IFERROR(ERROR.TYPE(B18)=ERROR.TYPE(C18),IFERROR(B18=C18,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="e">
-        <f>SUMIF($B$5:$B$11,"&gt;=2",$C$5:$C$11)</f>
+        <f>AVERAGEIF($B$6:$B$12,"&gt;=2",$C$6:$C$12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C19" t="e">
@@ -565,16 +659,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D19" t="b">
-        <f>IFERROR(ERROR.TYPE(B19)=ERROR.TYPE(C19),IFERROR(B19=C19,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f>IF(E19,TRUE,IFERROR(ERROR.TYPE(B19)=ERROR.TYPE(C19),IFERROR(B19=C19,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <f>IFERROR(ERROR.TYPE(B19)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20" t="e">
-        <f>AVERAGEIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
+        <f>SUMIF($B$6:$B$12,"&gt;=2",$C$6:$C$12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C20" t="e">
@@ -582,16 +685,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D20" t="b">
-        <f>IFERROR(ERROR.TYPE(B20)=ERROR.TYPE(C20),IFERROR(B20=C20,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f>IF(E20,TRUE,IFERROR(ERROR.TYPE(B20)=ERROR.TYPE(C20),IFERROR(B20=C20,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <f>IFERROR(ERROR.TYPE(B20)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" t="e">
-        <f>MINIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
+        <f>AVERAGEIFS($C$6:$C$12,$B$6:$B$12,"&gt;=2")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C21" t="e">
@@ -599,143 +706,200 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D21" t="b">
-        <f>IFERROR(ERROR.TYPE(B21)=ERROR.TYPE(C21),IFERROR(B21=C21,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f>IF(E21,TRUE,IFERROR(ERROR.TYPE(B21)=ERROR.TYPE(C21),IFERROR(B21=C21,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <f>IFERROR(ERROR.TYPE(B21)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B22" t="e">
-        <f>MAXIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#DIV/0!</v>
+        <f>MINIFS($C$6:$C$12,$B$6:$B$12,"&gt;=2")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C22" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D22" t="b">
-        <f>IFERROR(ERROR.TYPE(B22)=ERROR.TYPE(C22),IFERROR(B22=C22,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f>IF(E22,TRUE,IFERROR(ERROR.TYPE(B22)=ERROR.TYPE(C22),IFERROR(B22=C22,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <f>IFERROR(ERROR.TYPE(B22)=5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B23" t="e">
-        <f>SUMIFS($C$5:$C$11,$B$5:$B$11,"&gt;=2")</f>
-        <v>#DIV/0!</v>
+        <f>MAXIFS($C$6:$C$12,$B$6:$B$12,"&gt;=2")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C23" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" t="b">
-        <f>IFERROR(ERROR.TYPE(B23)=ERROR.TYPE(C23),IFERROR(B23=C23,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <f>AVERAGEIF($B$5:$B$11,"&lt;&gt;5",$C$5:$C$11)</f>
+        <f>IF(E23,TRUE,IFERROR(ERROR.TYPE(B23)=ERROR.TYPE(C23),IFERROR(B23=C23,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <f>IFERROR(ERROR.TYPE(B23)=5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="e">
+        <f>SUMIFS($C$6:$C$12,$B$6:$B$12,"&gt;=2")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="b">
+        <f>IF(E24,TRUE,IFERROR(ERROR.TYPE(B24)=ERROR.TYPE(C24),IFERROR(B24=C24,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <f>IFERROR(ERROR.TYPE(B24)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGEIF($B$6:$B$12,"&lt;&gt;5",$C$6:$C$12)</f>
         <v>1.5</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.5</v>
       </c>
-      <c r="D25" t="b">
-        <f>IFERROR(ERROR.TYPE(B25)=ERROR.TYPE(C25),IFERROR(B25=C25,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="D26" t="b">
+        <f>IF(E26,TRUE,IFERROR(ERROR.TYPE(B26)=ERROR.TYPE(C26),IFERROR(B26=C26,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <f>IFERROR(ERROR.TYPE(B26)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Ignores bools, strings, blanks</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <f>SUMIF($B$5:$B$11,"&lt;&gt;5",$C$5:$C$11)</f>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>SUMIF($B$6:$B$12,"&lt;&gt;5",$C$6:$C$12)</f>
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D26" t="b">
-        <f>IFERROR(ERROR.TYPE(B26)=ERROR.TYPE(C26),IFERROR(B26=C26,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <f>AVERAGEIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
+      <c r="D27" t="b">
+        <f>IF(E27,TRUE,IFERROR(ERROR.TYPE(B27)=ERROR.TYPE(C27),IFERROR(B27=C27,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <f>IFERROR(ERROR.TYPE(B27)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGEIFS($C$6:$C$12,$B$6:$B$12,"&lt;&gt;5")</f>
         <v>1.5</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1.5</v>
       </c>
-      <c r="D27" t="b">
-        <f>IFERROR(ERROR.TYPE(B27)=ERROR.TYPE(C27),IFERROR(B27=C27,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <f>MINIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
       <c r="D28" t="b">
-        <f>IFERROR(ERROR.TYPE(B28)=ERROR.TYPE(C28),IFERROR(B28=C28,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f>IF(E28,TRUE,IFERROR(ERROR.TYPE(B28)=ERROR.TYPE(C28),IFERROR(B28=C28,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <f>IFERROR(ERROR.TYPE(B28)=5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <f>MAXIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
+        <v>15</v>
+      </c>
+      <c r="B29" t="e">
+        <f>MINIFS($C$6:$C$12,$B$6:$B$12,"&lt;&gt;5")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <f>IF(E29,TRUE,IFERROR(ERROR.TYPE(B29)=ERROR.TYPE(C29),IFERROR(B29=C29,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <f>IFERROR(ERROR.TYPE(B29)=5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="e">
+        <f>MAXIFS($C$6:$C$12,$B$6:$B$12,"&lt;&gt;5")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="b">
-        <f>IFERROR(ERROR.TYPE(B29)=ERROR.TYPE(C29),IFERROR(B29=C29,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <f>SUMIFS($C$5:$C$11,$B$5:$B$11,"&lt;&gt;5")</f>
+      <c r="D30" t="b">
+        <f>IF(E30,TRUE,IFERROR(ERROR.TYPE(B30)=ERROR.TYPE(C30),IFERROR(B30=C30,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <f>IFERROR(ERROR.TYPE(B30)=5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f>SUMIFS($C$6:$C$12,$B$6:$B$12,"&lt;&gt;5")</f>
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D30" t="b">
-        <f>IFERROR(ERROR.TYPE(B30)=ERROR.TYPE(C30),IFERROR(B30=C30,FALSE))</f>
-        <v>1</v>
+      <c r="D31" t="b">
+        <f>IF(E31,TRUE,IFERROR(ERROR.TYPE(B31)=ERROR.TYPE(C31),IFERROR(B31=C31,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <f>IFERROR(ERROR.TYPE(B31)=5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +919,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,252 +927,738 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" style="0" width="17.57037259615385" customWidth="1"/>
+    <col min="1" max="1" style="0" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" style="0" width="9.142307692307693"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f t="array" ref="B1">SUM(0+D$18:D$9987)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="array" ref="B2">SUM(0+ISLOGICAL(D$18:D$10013))-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>What</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <f>""</f>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f>C6*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Space</t>
+        </is>
+      </c>
+      <c r="B8" t="s">
+        <f>" "</f>
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <f>C7*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sting number</t>
+        </is>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <f>C8*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <f>C9*2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <f>C10*2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>C11*2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>C12*2</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14">
+        <f>C13*2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <f>""</f>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>SUMIF($B$6:$B$14,A18,$C$6:$C$14)</f>
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(B18)=ERROR.TYPE(C18),IFERROR(B18=C18,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19">
+        <f>SUMIF($B$6:$B$14,A19,$C$6:$C$14)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(B19)=ERROR.TYPE(C19),IFERROR(B19=C19,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>SUMIF($B$6:$B$14,A20,$C$6:$C$14)</f>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(B20)=ERROR.TYPE(C20),IFERROR(B20=C20,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lone =</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>&lt;&gt;</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>SUMIF($B$6:$B$14,A21,$C$6:$C$14)</f>
+        <v>479</v>
+      </c>
+      <c r="C21">
+        <v>479</v>
+      </c>
+      <c r="D21" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(B21)=ERROR.TYPE(C21),IFERROR(B21=C21,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lone &lt;&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>= </t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>SUMIF($B$6:$B$14,A22,$C$6:$C$14)</f>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="b">
+        <f>IFERROR(ERROR.TYPE(B22)=ERROR.TYPE(C22),IFERROR(B22=C22,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>=[space]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;&gt; </t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>SUMIF($B$6:$B$14,A23,$C$6:$C$14)</f>
+        <v>507</v>
+      </c>
+      <c r="C23">
+        <v>507</v>
+      </c>
+      <c r="D23" t="b">
+        <f>IFERROR(ERROR.TYPE(B23)=ERROR.TYPE(C23),IFERROR(B23=C23,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>&lt;&gt;[space]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>SUMIF($B$6:$B$14,A24,$C$6:$C$14)</f>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="b">
+        <f>IFERROR(ERROR.TYPE(B24)=ERROR.TYPE(C24),IFERROR(B24=C24,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[space]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1*</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>SUMIF($B$6:$B$14,A25,$C$6:$C$14)</f>
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="b">
+        <f>IFERROR(ERROR.TYPE(B25)=ERROR.TYPE(C25),IFERROR(B25=C25,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No match in numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f>SUMIF($B$6:$B$14,A26,$C$6:$C$14)</f>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="b">
+        <f>IFERROR(ERROR.TYPE(B26)=ERROR.TYPE(C26),IFERROR(B26=C26,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>String matches number also</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>SUMIF($B$6:$B$14,A27,$C$6:$C$14)</f>
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>128</v>
+      </c>
+      <c r="D27" t="b">
+        <f>IFERROR(ERROR.TYPE(B27)=ERROR.TYPE(C27),IFERROR(B27=C27,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>String matches boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>x*</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>SUMIF($B$6:$B$14,A28,$C$6:$C$14)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <f>IFERROR(ERROR.TYPE(B28)=ERROR.TYPE(C28),IFERROR(B28=C28,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>String pattern match</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>SUMIF($B$6:$B$14,A29,$C$6:$C$14)</f>
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <f>IFERROR(ERROR.TYPE(B29)=ERROR.TYPE(C29),IFERROR(B29=C29,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pattern match is only for strings</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <f>SUMIF($B$6:$B$14,A30,$C$6:$C$14)</f>
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" t="b">
+        <f>IFERROR(ERROR.TYPE(B30)=ERROR.TYPE(C30),IFERROR(B30=C30,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Number match matches strings also</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="3" style="0" width="17.5703125" customWidth="1"/>
     <col min="4" max="5" style="0" width="9.142307692307693"/>
-    <col min="6" max="6" style="0" width="14.142007211538463" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" style="0" width="14.140624999999998" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <f t="array" ref="B1">SUM(0+E$21:E$9990)</f>
         <v>2</v>
       </c>
-      <c r="B1">
-        <f t="array" ref="B1">SUM(0+E$20:E$9989)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
-        <f t="array" ref="B2">SUM(0+ISLOGICAL(E$20:E$9989))-B1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
+        <f t="array" ref="B2">SUM(0+ISLOGICAL(E$21:E$9990))-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>512</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>1024</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
       </c>
       <c r="C16" s="6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
         <v>2048</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9">
-        <f>SUMIFS($C$5:$C$16,$A$5:$A$16,A21,$A$5:$A$16,B21)</f>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <f>SUMIFS($C$6:$C$17,$A$6:$A$17,A22,$A$6:$A$17,B22)</f>
         <v>56</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="7">
         <v>56</v>
       </c>
-      <c r="E20" s="9" t="b">
-        <f>IFERROR(ERROR.TYPE(C20)=ERROR.TYPE(D20),IFERROR(C20=D20,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="E21" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(C21)=ERROR.TYPE(D21),IFERROR(C21=D21,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>Range</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="11" t="inlineStr">
+    <row r="22" spans="1:6">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>&gt;=4</t>
         </is>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>&lt;=6</t>
         </is>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9">
-        <f>SUMIFS($C$5:$C$16,$A$5:$A$16,A24,$B$5:$B$16,B24)</f>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <f>SUMIFS($C$6:$C$17,$A$6:$A$17,A25,$B$6:$B$17,B25)</f>
         <v>192</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="7">
         <v>192</v>
       </c>
-      <c r="E23" s="9" t="b">
-        <f>IFERROR(ERROR.TYPE(C23)=ERROR.TYPE(D23),IFERROR(C23=D23,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="E24" s="7" t="b">
+        <f>IFERROR(ERROR.TYPE(C24)=ERROR.TYPE(D24),IFERROR(C24=D24,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="inlineStr">
         <is>
           <t>Conjunction</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="11" t="inlineStr">
+    <row r="25" spans="1:6">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>&gt;=7</t>
         </is>
       </c>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>&lt;=1</t>
         </is>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
